--- a/Banking dataset Decision Tree/Performance_metrics/model_perf_metrics_merged_1356_2712_4069__1_2 .xlsx
+++ b/Banking dataset Decision Tree/Performance_metrics/model_perf_metrics_merged_1356_2712_4069__1_2 .xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,10 +502,10 @@
         <v>31647</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5077932731747333</v>
+        <v>0.5002020202020202</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6917697616163387</v>
+        <v>0.6902344919067953</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>31647</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4857324032974002</v>
+        <v>0.4899135446685879</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7167066987508017</v>
+        <v>0.717621261038057</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -588,26 +588,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DT_sample:10_cf:1_iteration:1</t>
+          <t>DT_sample:1356_cf:1_iteration:1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>1356</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>31657</v>
+        <v>33003</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4859154929577465</v>
+        <v>0.4740450538687561</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7153492986620038</v>
+        <v>0.7056128416932969</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -622,26 +622,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DT_sample:10_cf:1_iteration:2</t>
+          <t>DT_sample:1356_cf:1_iteration:2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>1356</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>31657</v>
+        <v>33003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4801524293426485</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7131967199636039</v>
+        <v>0.7089136523841106</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -656,26 +656,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DT_sample:10_cf:2_iteration:1</t>
+          <t>DT_sample:1356_cf:1_iteration:3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>1356</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>31667</v>
+        <v>33003</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4810289389067524</v>
+        <v>0.4612312811980033</v>
       </c>
       <c r="H7" t="n">
-        <v>0.711841019091522</v>
+        <v>0.6957519033967891</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -690,31 +690,915 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DT_sample:10_cf:2_iteration:2</t>
+          <t>DT_sample:1356_cf:1_iteration:4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33003</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4675409836065573</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7013195788135083</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:1_iteration:5</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33003</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4550580431177446</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6927347522706468</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:2_iteration:1</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>34359</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4574503868146653</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.692247022259739</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:2_iteration:2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>34359</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4715392388009431</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.699847892697205</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>31667</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4864173857462448</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.715885319315709</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:2_iteration:3</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>34359</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4579124579124579</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.6923715035875397</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:2_iteration:4</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>34359</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.451657458563536</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.6857766790727757</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:2_iteration:5</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>34359</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4668918918918919</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6968756337804283</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:1_iteration:1</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34359</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.464166108506363</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6965402851395276</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:1_iteration:2</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34359</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4662658650634603</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6980670587654917</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:1_iteration:3</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>34359</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4574681848626926</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6928228374726617</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:1_iteration:4</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>34359</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4643693542990966</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6967875485784133</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:1_iteration:5</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>34359</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4664406779661017</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6961753372397046</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:2_iteration:1</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>37071</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4663923182441701</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6946121674879547</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:2_iteration:2</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>37071</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4583620096352375</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6898226785136786</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:2_iteration:3</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>37071</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4558107167710508</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6870612869100018</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:2_iteration:4</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>37071</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4590613223706749</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6907702384932881</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:2_iteration:5</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>37071</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4536082474226804</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6874262348098247</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:1_iteration:1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>35716</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4781439139206456</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7037296162510894</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:1_iteration:2</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>35716</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4612230953194397</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6922970121192521</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:1_iteration:3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>35716</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.4439173161640122</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.6838662661631139</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:1_iteration:4</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>35716</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.4760921912624699</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6994465486715962</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:1_iteration:5</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>35716</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.4683631361760661</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.6953158624621102</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:2_iteration:1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>39785</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4635285662953647</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6871197728530946</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:2_iteration:2</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>39785</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.4667370644139387</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6914045396493036</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:2_iteration:3</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>39785</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.45586671393123</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6847995198342441</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:2_iteration:4</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>39785</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4561525129982669</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.6877200896747918</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:2_iteration:5</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>39785</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.4467040673211782</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.6812827441801828</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
